--- a/sov_extract/Data/brightness_analys_6_01_02.xlsx
+++ b/sov_extract/Data/brightness_analys_6_01_02.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="3" customWidth="1" min="1" max="1"/>
+    <col width="4" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
@@ -456,6 +456,8 @@
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
     <col width="13" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="16" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -504,6 +506,16 @@
           <t>Bright_Cl_s</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>color_ellips</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -527,7 +539,7 @@
         <v>110.4</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
         <v>14</v>
@@ -537,6 +549,16 @@
       </c>
       <c r="J2" t="n">
         <v>46.3</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>#886b3e</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -561,7 +583,7 @@
         <v>99</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H3" t="n">
         <v>13.7</v>
@@ -571,6 +593,16 @@
       </c>
       <c r="J3" t="n">
         <v>42</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>#7d5f37</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -595,7 +627,7 @@
         <v>135.2</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
         <v>16.5</v>
@@ -605,6 +637,16 @@
       </c>
       <c r="J4" t="n">
         <v>56.9</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>#a18551</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -629,7 +671,7 @@
         <v>137.8</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
         <v>14.2</v>
@@ -640,141 +682,1247 @@
       <c r="J5" t="n">
         <v>57.7</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>#a9874d</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>207.7</v>
+        <v>197.3</v>
       </c>
       <c r="E6" t="n">
-        <v>30.5</v>
+        <v>35.1</v>
       </c>
       <c r="F6" t="n">
-        <v>136.5</v>
+        <v>160.3</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>14.2</v>
+        <v>20.2</v>
       </c>
       <c r="I6" t="n">
-        <v>106.1</v>
+        <v>125.8</v>
       </c>
       <c r="J6" t="n">
-        <v>56.8</v>
+        <v>68.09999999999999</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>#bba16a</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>199.7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>167.4</v>
+      </c>
+      <c r="G7" t="n">
         <v>3</v>
       </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>190.9</v>
-      </c>
-      <c r="E7" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>118</v>
-      </c>
-      <c r="G7" t="n">
-        <v>4</v>
-      </c>
       <c r="H7" t="n">
-        <v>11.5</v>
+        <v>18.9</v>
       </c>
       <c r="I7" t="n">
-        <v>92.09999999999999</v>
+        <v>131</v>
       </c>
       <c r="J7" t="n">
-        <v>49</v>
+        <v>70.5</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>#c2a76e</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>205.6</v>
+        <v>187.8</v>
       </c>
       <c r="E8" t="n">
-        <v>24.1</v>
+        <v>48.3</v>
       </c>
       <c r="F8" t="n">
-        <v>183.5</v>
+        <v>123.3</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>16.9</v>
+        <v>33.4</v>
       </c>
       <c r="I8" t="n">
-        <v>143.8</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>76.7</v>
+        <v>59.4</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>#9f8351</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>197.9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>#a3824c</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>203.2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>29</v>
+      </c>
+      <c r="F10" t="n">
+        <v>170.4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>#c6a86c</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>209.2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>158.1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>127</v>
+      </c>
+      <c r="J11" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>#bfa56c</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>193.9</v>
+      </c>
+      <c r="E12" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>116.2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>11</v>
+      </c>
+      <c r="H12" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="J12" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>#8f7041</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>14</v>
+      </c>
+      <c r="H13" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="I13" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="J13" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>#7e6139</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>174.1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>125.3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>#9c7e4f</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>195.2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>31</v>
+      </c>
+      <c r="F15" t="n">
+        <v>171.6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>#c7b079</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>205.8</v>
+      </c>
+      <c r="E16" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>16</v>
+      </c>
+      <c r="H16" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="J16" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>#765d40</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="G17" t="n">
+        <v>15</v>
+      </c>
+      <c r="H17" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>43</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>#7b5f3a</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>207.7</v>
+      </c>
+      <c r="E18" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>11</v>
+      </c>
+      <c r="H18" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>#a28458</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="E19" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>118</v>
+      </c>
+      <c r="G19" t="n">
+        <v>14</v>
+      </c>
+      <c r="H19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="J19" t="n">
+        <v>49</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>#96703d</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>205.6</v>
+      </c>
+      <c r="E20" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="I20" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>#d2b67e</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B21" t="n">
         <v>4</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D21" t="n">
         <v>183.6</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E21" t="n">
         <v>46.4</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F21" t="n">
         <v>121.5</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G21" t="n">
+        <v>13</v>
+      </c>
+      <c r="H21" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="J21" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>#9b7740</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>205.8</v>
+      </c>
+      <c r="E22" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>192</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>17</v>
+      </c>
+      <c r="I22" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>#ddc082</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>161.8</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7</v>
+      </c>
+      <c r="H23" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="I23" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>#b8a16d</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B24" t="n">
+        <v>7</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>209.6</v>
+      </c>
+      <c r="E24" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>124.1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>12</v>
+      </c>
+      <c r="H24" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="J24" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>#97794e</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>206.4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>138.4</v>
+      </c>
+      <c r="G25" t="n">
+        <v>9</v>
+      </c>
+      <c r="H25" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="I25" t="n">
+        <v>107.1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>#a58555</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B26" t="n">
+        <v>9</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>210.8</v>
+      </c>
+      <c r="E26" t="n">
+        <v>26</v>
+      </c>
+      <c r="F26" t="n">
+        <v>160.8</v>
+      </c>
+      <c r="G26" t="n">
+        <v>8</v>
+      </c>
+      <c r="H26" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>124.2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>#bf9c66</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>209.3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="F27" t="n">
+        <v>163.7</v>
+      </c>
+      <c r="G27" t="n">
+        <v>6</v>
+      </c>
+      <c r="H27" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="I27" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="J27" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>#bea670</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B28" t="n">
+        <v>11</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>199.4</v>
+      </c>
+      <c r="E28" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>10</v>
+      </c>
+      <c r="H28" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>108.1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>#ad8751</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>204.3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="F29" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="G29" t="n">
         <v>3</v>
       </c>
-      <c r="H9" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="I9" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="J9" t="n">
-        <v>52.2</v>
+      <c r="H29" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>145.7</v>
+      </c>
+      <c r="J29" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>#d4ba7d</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B30" t="n">
+        <v>13</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>207.5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>32</v>
+      </c>
+      <c r="F30" t="n">
+        <v>164.2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5</v>
+      </c>
+      <c r="H30" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="I30" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="J30" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>#c7a464</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B31" t="n">
+        <v>14</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>211</v>
+      </c>
+      <c r="E31" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>205.7</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="I31" t="n">
+        <v>161.2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>#e0cf97</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B32" t="n">
+        <v>15</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>203</v>
+      </c>
+      <c r="E32" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="F32" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>16</v>
+      </c>
+      <c r="H32" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="J32" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>#7f5934</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>16</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>185.9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="F33" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="G33" t="n">
+        <v>15</v>
+      </c>
+      <c r="H33" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="I33" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="J33" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>#926f3f</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>fig(500 x 500)</t>
+        </is>
       </c>
     </row>
   </sheetData>
